--- a/exelphp/result/kvitansiya.xlsx
+++ b/exelphp/result/kvitansiya.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonny\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OSPanel\domains\creditbank\exelphp\result\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,13 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="46">
-  <si>
-    <t>Мижоз раками:</t>
-  </si>
-  <si>
-    <t>001-шакл</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="46">
   <si>
     <t>СУММА</t>
   </si>
@@ -37,10 +31,7 @@
     <t>Кимдан</t>
   </si>
   <si>
-    <t>Рахмонова  Гулсора Абдулхакимовна</t>
-  </si>
-  <si>
-    <t>245 000,00</t>
+    <t>Абдухоликов Юлчивой ХХХ</t>
   </si>
   <si>
     <t>Рахматов Дониёр Муродович</t>
@@ -70,6 +61,9 @@
     <t xml:space="preserve">BUVAYDA TUMANI YONG'INNI OLDINI OLISH MCHJ </t>
   </si>
   <si>
+    <t>Мижоз раками:</t>
+  </si>
+  <si>
     <t>Сумма ракам билан</t>
   </si>
   <si>
@@ -85,7 +79,7 @@
     <t>Тулов тури:</t>
   </si>
   <si>
-    <t>Plastik</t>
+    <t>Naqd</t>
   </si>
   <si>
     <t>Бошқа тушумлар №1-100 шартнома асаосан ўтказилди</t>
@@ -101,6 +95,12 @@
   </si>
   <si>
     <t>КВИТАНЦИЯ №</t>
+  </si>
+  <si>
+    <t>001-шакл</t>
+  </si>
+  <si>
+    <t>Рахмонова  Гулсора Абдулхакимовна</t>
   </si>
   <si>
     <t>х/в</t>
@@ -169,8 +169,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0.00;[Red]#,##0.00"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -210,9 +210,9 @@
       <name val="Arial Cyr"/>
     </font>
     <font>
-      <i/>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -222,19 +222,10 @@
       <name val="Arial Cyr"/>
     </font>
     <font>
-      <b/>
       <i/>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial Cyr"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
     </font>
     <font>
       <b/>
@@ -244,11 +235,16 @@
     </font>
     <font>
       <b/>
-      <sz val="16"/>
+      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Cyr"/>
     </font>
   </fonts>
   <fills count="4">
@@ -268,7 +264,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -282,7 +278,9 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -291,9 +289,7 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -411,6 +407,17 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color rgb="FF000000"/>
@@ -425,29 +432,39 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right/>
-      <top style="thin">
+      <right style="thin">
         <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -474,113 +491,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="185">
+  <cellXfs count="190">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="4" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -594,7 +516,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -605,10 +527,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -658,10 +580,10 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -682,72 +604,48 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -771,19 +669,25 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -792,32 +696,47 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -828,46 +747,139 @@
     <xf numFmtId="4" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="7" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -878,73 +890,25 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="3" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -956,37 +920,40 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="4" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -995,42 +962,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1053,28 +990,28 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>148319</xdr:colOff>
+      <xdr:colOff>85725</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>81643</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1006928" cy="1006928"/>
+    <xdr:ext cx="1066800" cy="1066800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 4294967295"/>
+        <xdr:cNvPr id="2" name="Рисунок 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2597605" y="81643"/>
-          <a:ext cx="1006928" cy="1006928"/>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1086,28 +1023,28 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>148319</xdr:colOff>
+      <xdr:colOff>85725</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>81643</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1006928" cy="1006928"/>
+    <xdr:ext cx="1066800" cy="1066800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Рисунок 4294967295"/>
+        <xdr:cNvPr id="3" name="Рисунок 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2597605" y="81643"/>
-          <a:ext cx="1006928" cy="1006928"/>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1408,8 +1345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF61"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="115" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="V21" sqref="V21"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1429,16 +1366,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="179"/>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="173"/>
-      <c r="F1" s="174"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="181"/>
-      <c r="J1" s="182"/>
+      <c r="A1" s="68"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="175"/>
       <c r="K1" s="57"/>
       <c r="L1" s="7"/>
       <c r="M1" s="7"/>
@@ -1447,8 +1384,8 @@
       <c r="P1" s="7"/>
       <c r="Q1" s="7"/>
       <c r="R1" s="7"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="75"/>
+      <c r="S1" s="91"/>
+      <c r="T1" s="93"/>
       <c r="V1" s="35"/>
       <c r="W1" s="35"/>
       <c r="X1" s="35"/>
@@ -1457,30 +1394,30 @@
       <c r="AA1" s="35"/>
       <c r="AB1" s="35"/>
       <c r="AC1" s="35"/>
-      <c r="AD1" s="86"/>
-      <c r="AE1" s="86"/>
+      <c r="AD1" s="82"/>
+      <c r="AE1" s="82"/>
       <c r="AF1" s="35"/>
     </row>
     <row r="2" spans="1:32" s="10" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="76">
+      <c r="A2" s="130">
         <f ca="1">TODAY()</f>
         <v>44464</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="183"/>
-      <c r="E2" s="175"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="183"/>
-      <c r="H2" s="183"/>
-      <c r="I2" s="183"/>
+      <c r="B2" s="131"/>
+      <c r="C2" s="132"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="149"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
       <c r="J2" s="31"/>
-      <c r="K2" s="121">
+      <c r="K2" s="72">
         <f ca="1">TODAY()</f>
         <v>44464</v>
       </c>
-      <c r="L2" s="122"/>
-      <c r="M2" s="123"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="74"/>
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
       <c r="P2" s="8"/>
@@ -1488,9 +1425,9 @@
       <c r="R2" s="8"/>
       <c r="S2" s="8"/>
       <c r="T2" s="9"/>
-      <c r="V2" s="101"/>
-      <c r="W2" s="101"/>
-      <c r="X2" s="101"/>
+      <c r="V2" s="111"/>
+      <c r="W2" s="111"/>
+      <c r="X2" s="111"/>
       <c r="Y2" s="36"/>
       <c r="Z2" s="36"/>
       <c r="AA2" s="36"/>
@@ -1501,53 +1438,53 @@
       <c r="AF2" s="36"/>
     </row>
     <row r="3" spans="1:32" s="11" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="79"/>
-      <c r="B3" s="80"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="183"/>
-      <c r="E3" s="175"/>
-      <c r="F3" s="176"/>
-      <c r="G3" s="183"/>
-      <c r="H3" s="163" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="163"/>
-      <c r="J3" s="163"/>
-      <c r="K3" s="125"/>
-      <c r="L3" s="125"/>
-      <c r="M3" s="126"/>
+      <c r="A3" s="133"/>
+      <c r="B3" s="134"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="148"/>
+      <c r="F3" s="149"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="123" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="123"/>
+      <c r="J3" s="123"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="77"/>
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
       <c r="P3" s="8"/>
       <c r="Q3" s="8"/>
-      <c r="R3" s="82" t="s">
-        <v>2</v>
-      </c>
-      <c r="S3" s="83"/>
-      <c r="T3" s="84"/>
-      <c r="V3" s="101"/>
-      <c r="W3" s="101"/>
-      <c r="X3" s="101"/>
+      <c r="R3" s="98" t="s">
+        <v>0</v>
+      </c>
+      <c r="S3" s="99"/>
+      <c r="T3" s="100"/>
+      <c r="V3" s="111"/>
+      <c r="W3" s="111"/>
+      <c r="X3" s="111"/>
       <c r="Y3" s="36"/>
       <c r="Z3" s="36"/>
       <c r="AA3" s="36"/>
       <c r="AB3" s="36"/>
-      <c r="AC3" s="71"/>
-      <c r="AD3" s="71"/>
-      <c r="AE3" s="71"/>
+      <c r="AC3" s="102"/>
+      <c r="AD3" s="102"/>
+      <c r="AE3" s="102"/>
       <c r="AF3" s="37"/>
     </row>
     <row r="4" spans="1:32" s="11" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
-      <c r="B4" s="183"/>
-      <c r="C4" s="183"/>
-      <c r="D4" s="183"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="178"/>
-      <c r="G4" s="183"/>
-      <c r="H4" s="163"/>
-      <c r="I4" s="163"/>
-      <c r="J4" s="163"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="123"/>
+      <c r="I4" s="123"/>
+      <c r="J4" s="123"/>
       <c r="K4" s="13"/>
       <c r="L4" s="13"/>
       <c r="M4" s="13"/>
@@ -1555,9 +1492,9 @@
       <c r="O4" s="13"/>
       <c r="P4" s="13"/>
       <c r="Q4" s="14"/>
-      <c r="R4" s="70"/>
-      <c r="S4" s="71"/>
-      <c r="T4" s="85"/>
+      <c r="R4" s="101"/>
+      <c r="S4" s="102"/>
+      <c r="T4" s="103"/>
       <c r="V4" s="37"/>
       <c r="W4" s="37"/>
       <c r="X4" s="37"/>
@@ -1565,85 +1502,85 @@
       <c r="Z4" s="37"/>
       <c r="AA4" s="37"/>
       <c r="AB4" s="37"/>
-      <c r="AC4" s="71"/>
-      <c r="AD4" s="71"/>
-      <c r="AE4" s="71"/>
+      <c r="AC4" s="102"/>
+      <c r="AD4" s="102"/>
+      <c r="AE4" s="102"/>
       <c r="AF4" s="37"/>
     </row>
     <row r="5" spans="1:32" s="11" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="100" t="s">
+      <c r="A5" s="159" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="159"/>
+      <c r="C5" s="125" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="126"/>
+      <c r="E5" s="127"/>
+      <c r="F5" s="127"/>
+      <c r="G5" s="126"/>
+      <c r="H5" s="118">
+        <v>50000</v>
+      </c>
+      <c r="I5" s="118"/>
+      <c r="J5" s="119"/>
+      <c r="K5" s="150" t="s">
+        <v>1</v>
+      </c>
+      <c r="L5" s="152"/>
+      <c r="M5" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="100"/>
-      <c r="C5" s="106" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="106"/>
-      <c r="E5" s="172"/>
-      <c r="F5" s="172"/>
-      <c r="G5" s="106"/>
-      <c r="H5" s="139" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="139"/>
-      <c r="J5" s="140"/>
-      <c r="K5" s="130" t="s">
-        <v>3</v>
-      </c>
-      <c r="L5" s="132"/>
-      <c r="M5" s="93" t="s">
-        <v>6</v>
-      </c>
-      <c r="N5" s="93"/>
-      <c r="O5" s="93"/>
-      <c r="P5" s="93"/>
-      <c r="Q5" s="94"/>
-      <c r="R5" s="133">
+      <c r="N5" s="89"/>
+      <c r="O5" s="89"/>
+      <c r="P5" s="89"/>
+      <c r="Q5" s="90"/>
+      <c r="R5" s="153">
         <v>1500000</v>
       </c>
-      <c r="S5" s="134"/>
-      <c r="T5" s="135"/>
-      <c r="V5" s="88"/>
-      <c r="W5" s="88"/>
+      <c r="S5" s="154"/>
+      <c r="T5" s="155"/>
+      <c r="V5" s="84"/>
+      <c r="W5" s="84"/>
       <c r="X5" s="44"/>
       <c r="Y5" s="44"/>
       <c r="Z5" s="44"/>
       <c r="AA5" s="44"/>
       <c r="AB5" s="44"/>
-      <c r="AC5" s="102"/>
-      <c r="AD5" s="102"/>
-      <c r="AE5" s="102"/>
+      <c r="AC5" s="116"/>
+      <c r="AD5" s="116"/>
+      <c r="AE5" s="116"/>
       <c r="AF5" s="37"/>
     </row>
     <row r="6" spans="1:32" s="11" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="70"/>
-      <c r="B6" s="71"/>
-      <c r="C6" s="71"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="72" t="s">
+      <c r="A6" s="106" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="106"/>
+      <c r="C6" s="106"/>
+      <c r="D6" s="107">
+        <v>100</v>
+      </c>
+      <c r="E6" s="107"/>
+      <c r="F6" s="107"/>
+      <c r="G6" s="108"/>
+      <c r="H6" s="120"/>
+      <c r="I6" s="118"/>
+      <c r="J6" s="119"/>
+      <c r="K6" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" s="16" t="s">
         <v>7</v>
-      </c>
-      <c r="G6" s="73" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" s="141"/>
-      <c r="I6" s="139"/>
-      <c r="J6" s="140"/>
-      <c r="K6" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="L6" s="16" t="s">
-        <v>10</v>
       </c>
       <c r="M6" s="16"/>
       <c r="N6" s="16"/>
       <c r="O6" s="16"/>
       <c r="P6" s="16"/>
       <c r="Q6" s="17"/>
-      <c r="R6" s="133"/>
-      <c r="S6" s="134"/>
-      <c r="T6" s="135"/>
+      <c r="R6" s="153"/>
+      <c r="S6" s="154"/>
+      <c r="T6" s="155"/>
       <c r="V6" s="43"/>
       <c r="W6" s="45"/>
       <c r="X6" s="45"/>
@@ -1651,111 +1588,111 @@
       <c r="Z6" s="45"/>
       <c r="AA6" s="45"/>
       <c r="AB6" s="45"/>
-      <c r="AC6" s="102"/>
-      <c r="AD6" s="102"/>
-      <c r="AE6" s="102"/>
+      <c r="AC6" s="116"/>
+      <c r="AD6" s="116"/>
+      <c r="AE6" s="116"/>
       <c r="AF6" s="37"/>
     </row>
     <row r="7" spans="1:32" s="11" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="70"/>
-      <c r="B7" s="71"/>
-      <c r="C7" s="71"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="141"/>
-      <c r="I7" s="139"/>
-      <c r="J7" s="140"/>
-      <c r="K7" s="130" t="s">
-        <v>11</v>
-      </c>
-      <c r="L7" s="147"/>
-      <c r="M7" s="148" t="s">
-        <v>12</v>
-      </c>
-      <c r="N7" s="148"/>
-      <c r="O7" s="149"/>
+      <c r="A7" s="106"/>
+      <c r="B7" s="106"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="109"/>
+      <c r="E7" s="109"/>
+      <c r="F7" s="109"/>
+      <c r="G7" s="110"/>
+      <c r="H7" s="120"/>
+      <c r="I7" s="118"/>
+      <c r="J7" s="119"/>
+      <c r="K7" s="150" t="s">
+        <v>8</v>
+      </c>
+      <c r="L7" s="164"/>
+      <c r="M7" s="165" t="s">
+        <v>9</v>
+      </c>
+      <c r="N7" s="165"/>
+      <c r="O7" s="166"/>
       <c r="P7" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Q7" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="R7" s="133"/>
-      <c r="S7" s="134"/>
-      <c r="T7" s="135"/>
-      <c r="V7" s="88"/>
-      <c r="W7" s="89"/>
-      <c r="X7" s="90"/>
-      <c r="Y7" s="90"/>
-      <c r="Z7" s="90"/>
+        <v>5</v>
+      </c>
+      <c r="R7" s="153"/>
+      <c r="S7" s="154"/>
+      <c r="T7" s="155"/>
+      <c r="V7" s="84"/>
+      <c r="W7" s="85"/>
+      <c r="X7" s="86"/>
+      <c r="Y7" s="86"/>
+      <c r="Z7" s="86"/>
       <c r="AA7" s="38"/>
       <c r="AB7" s="46"/>
-      <c r="AC7" s="102"/>
-      <c r="AD7" s="102"/>
-      <c r="AE7" s="102"/>
+      <c r="AC7" s="116"/>
+      <c r="AD7" s="116"/>
+      <c r="AE7" s="116"/>
       <c r="AF7" s="37"/>
     </row>
     <row r="8" spans="1:32" s="11" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="144" t="s">
+      <c r="A8" s="160" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="160"/>
+      <c r="C8" s="79" t="str">
+        <f>C5</f>
+        <v>Абдухоликов Юлчивой ХХХ</v>
+      </c>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="121"/>
+      <c r="I8" s="121"/>
+      <c r="J8" s="122"/>
+      <c r="K8" s="136" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="137"/>
+      <c r="M8" s="89" t="s">
+        <v>11</v>
+      </c>
+      <c r="N8" s="89"/>
+      <c r="O8" s="89"/>
+      <c r="P8" s="89"/>
+      <c r="Q8" s="90"/>
+      <c r="R8" s="156"/>
+      <c r="S8" s="157"/>
+      <c r="T8" s="158"/>
+      <c r="V8" s="87"/>
+      <c r="W8" s="87"/>
+      <c r="X8" s="88"/>
+      <c r="Y8" s="88"/>
+      <c r="Z8" s="88"/>
+      <c r="AA8" s="88"/>
+      <c r="AB8" s="88"/>
+      <c r="AC8" s="116"/>
+      <c r="AD8" s="116"/>
+      <c r="AE8" s="116"/>
+      <c r="AF8" s="37"/>
+    </row>
+    <row r="9" spans="1:32" ht="22.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="186" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="187"/>
+      <c r="C9" s="124">
+        <v>15320</v>
+      </c>
+      <c r="D9" s="124"/>
+      <c r="E9" s="124"/>
+      <c r="F9" s="124"/>
+      <c r="G9" s="124"/>
+      <c r="H9" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="144"/>
-      <c r="C8" s="67" t="str">
-        <f>C5</f>
-        <v>Рахмонова  Гулсора Абдулхакимовна</v>
-      </c>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="142"/>
-      <c r="I8" s="142"/>
-      <c r="J8" s="143"/>
-      <c r="K8" s="107" t="s">
-        <v>13</v>
-      </c>
-      <c r="L8" s="108"/>
-      <c r="M8" s="93" t="s">
-        <v>14</v>
-      </c>
-      <c r="N8" s="93"/>
-      <c r="O8" s="93"/>
-      <c r="P8" s="93"/>
-      <c r="Q8" s="94"/>
-      <c r="R8" s="136"/>
-      <c r="S8" s="137"/>
-      <c r="T8" s="138"/>
-      <c r="V8" s="91"/>
-      <c r="W8" s="91"/>
-      <c r="X8" s="92"/>
-      <c r="Y8" s="92"/>
-      <c r="Z8" s="92"/>
-      <c r="AA8" s="92"/>
-      <c r="AB8" s="92"/>
-      <c r="AC8" s="102"/>
-      <c r="AD8" s="102"/>
-      <c r="AE8" s="102"/>
-      <c r="AF8" s="37"/>
-    </row>
-    <row r="9" spans="1:32" ht="22.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="167" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="168"/>
-      <c r="C9" s="105">
-        <v>75555</v>
-      </c>
-      <c r="D9" s="105"/>
-      <c r="E9" s="105"/>
-      <c r="F9" s="105"/>
-      <c r="G9" s="105"/>
-      <c r="H9" s="74" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" s="95"/>
-      <c r="J9" s="75"/>
+      <c r="I9" s="92"/>
+      <c r="J9" s="93"/>
       <c r="K9" s="19"/>
       <c r="L9" s="20"/>
       <c r="M9" s="21"/>
@@ -1763,11 +1700,11 @@
       <c r="O9" s="21"/>
       <c r="P9" s="21"/>
       <c r="Q9" s="21"/>
-      <c r="R9" s="74" t="s">
-        <v>15</v>
-      </c>
-      <c r="S9" s="95"/>
-      <c r="T9" s="75"/>
+      <c r="R9" s="91" t="s">
+        <v>13</v>
+      </c>
+      <c r="S9" s="92"/>
+      <c r="T9" s="93"/>
       <c r="V9" s="37"/>
       <c r="W9" s="37"/>
       <c r="X9" s="39"/>
@@ -1775,130 +1712,130 @@
       <c r="Z9" s="39"/>
       <c r="AA9" s="39"/>
       <c r="AB9" s="39"/>
-      <c r="AC9" s="86"/>
-      <c r="AD9" s="86"/>
-      <c r="AE9" s="86"/>
+      <c r="AC9" s="82"/>
+      <c r="AD9" s="82"/>
+      <c r="AE9" s="82"/>
       <c r="AF9" s="35"/>
     </row>
     <row r="10" spans="1:32" s="22" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="127" t="s">
+      <c r="A10" s="161" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="162"/>
+      <c r="C10" s="176" t="str">
+        <f>UPPER(LEFT(Formula!B4,1))&amp;RIGHT(Formula!B4,LEN(Formula!B4)-1)</f>
+        <v>Эллик минг сум 0 тийин</v>
+      </c>
+      <c r="D10" s="177"/>
+      <c r="E10" s="177"/>
+      <c r="F10" s="177"/>
+      <c r="G10" s="177"/>
+      <c r="H10" s="139"/>
+      <c r="I10" s="139"/>
+      <c r="J10" s="140"/>
+      <c r="K10" s="94" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10" s="95"/>
+      <c r="M10" s="138" t="str">
+        <f>UPPER(LEFT(Formula!L4,1))&amp;RIGHT(Formula!L4,LEN(Formula!L4)-1)</f>
+        <v>000</v>
+      </c>
+      <c r="N10" s="139"/>
+      <c r="O10" s="139"/>
+      <c r="P10" s="139"/>
+      <c r="Q10" s="139"/>
+      <c r="R10" s="139"/>
+      <c r="S10" s="139"/>
+      <c r="T10" s="140"/>
+      <c r="V10" s="112"/>
+      <c r="W10" s="113"/>
+      <c r="X10" s="114"/>
+      <c r="Y10" s="115"/>
+      <c r="Z10" s="115"/>
+      <c r="AA10" s="115"/>
+      <c r="AB10" s="115"/>
+      <c r="AC10" s="115"/>
+      <c r="AD10" s="115"/>
+      <c r="AE10" s="115"/>
+      <c r="AF10" s="41"/>
+    </row>
+    <row r="11" spans="1:32" s="22" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="163"/>
+      <c r="B11" s="162"/>
+      <c r="C11" s="178"/>
+      <c r="D11" s="177"/>
+      <c r="E11" s="177"/>
+      <c r="F11" s="177"/>
+      <c r="G11" s="177"/>
+      <c r="H11" s="177"/>
+      <c r="I11" s="177"/>
+      <c r="J11" s="179"/>
+      <c r="K11" s="96"/>
+      <c r="L11" s="97"/>
+      <c r="M11" s="141"/>
+      <c r="N11" s="142"/>
+      <c r="O11" s="142"/>
+      <c r="P11" s="142"/>
+      <c r="Q11" s="142"/>
+      <c r="R11" s="142"/>
+      <c r="S11" s="142"/>
+      <c r="T11" s="143"/>
+      <c r="V11" s="113"/>
+      <c r="W11" s="113"/>
+      <c r="X11" s="115"/>
+      <c r="Y11" s="115"/>
+      <c r="Z11" s="115"/>
+      <c r="AA11" s="115"/>
+      <c r="AB11" s="115"/>
+      <c r="AC11" s="115"/>
+      <c r="AD11" s="115"/>
+      <c r="AE11" s="115"/>
+      <c r="AF11" s="41"/>
+    </row>
+    <row r="12" spans="1:32" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="151"/>
+      <c r="C12" s="180" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="128"/>
-      <c r="C10" s="156" t="str">
-        <f>UPPER(LEFT(Formula!B4,1))&amp;RIGHT(Formula!B4,LEN(Formula!B4)-1)</f>
-        <v>Икки юз кирк беш минг сум 0 тийин</v>
-      </c>
-      <c r="D10" s="157"/>
-      <c r="E10" s="157"/>
-      <c r="F10" s="157"/>
-      <c r="G10" s="157"/>
-      <c r="H10" s="114"/>
-      <c r="I10" s="114"/>
-      <c r="J10" s="115"/>
-      <c r="K10" s="96" t="s">
-        <v>16</v>
-      </c>
-      <c r="L10" s="97"/>
-      <c r="M10" s="113" t="str">
-        <f>UPPER(LEFT(Formula!L4,1))&amp;RIGHT(Formula!L4,LEN(Formula!L4)-1)</f>
-        <v>000</v>
-      </c>
-      <c r="N10" s="114"/>
-      <c r="O10" s="114"/>
-      <c r="P10" s="114"/>
-      <c r="Q10" s="114"/>
-      <c r="R10" s="114"/>
-      <c r="S10" s="114"/>
-      <c r="T10" s="115"/>
-      <c r="V10" s="109"/>
-      <c r="W10" s="110"/>
-      <c r="X10" s="111"/>
-      <c r="Y10" s="112"/>
-      <c r="Z10" s="112"/>
-      <c r="AA10" s="112"/>
-      <c r="AB10" s="112"/>
-      <c r="AC10" s="112"/>
-      <c r="AD10" s="112"/>
-      <c r="AE10" s="112"/>
-      <c r="AF10" s="41"/>
-    </row>
-    <row r="11" spans="1:32" s="22" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="129"/>
-      <c r="B11" s="128"/>
-      <c r="C11" s="158"/>
-      <c r="D11" s="157"/>
-      <c r="E11" s="157"/>
-      <c r="F11" s="157"/>
-      <c r="G11" s="157"/>
-      <c r="H11" s="157"/>
-      <c r="I11" s="157"/>
-      <c r="J11" s="159"/>
-      <c r="K11" s="98"/>
-      <c r="L11" s="99"/>
-      <c r="M11" s="116"/>
-      <c r="N11" s="117"/>
-      <c r="O11" s="117"/>
-      <c r="P11" s="117"/>
-      <c r="Q11" s="117"/>
-      <c r="R11" s="117"/>
-      <c r="S11" s="117"/>
-      <c r="T11" s="118"/>
-      <c r="V11" s="110"/>
-      <c r="W11" s="110"/>
-      <c r="X11" s="112"/>
-      <c r="Y11" s="112"/>
-      <c r="Z11" s="112"/>
-      <c r="AA11" s="112"/>
-      <c r="AB11" s="112"/>
-      <c r="AC11" s="112"/>
-      <c r="AD11" s="112"/>
-      <c r="AE11" s="112"/>
-      <c r="AF11" s="41"/>
-    </row>
-    <row r="12" spans="1:32" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="130" t="s">
+      <c r="D12" s="181"/>
+      <c r="E12" s="182"/>
+      <c r="F12" s="183" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="131"/>
-      <c r="C12" s="160" t="s">
+      <c r="G12" s="184"/>
+      <c r="H12" s="180" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="161"/>
-      <c r="E12" s="162"/>
-      <c r="F12" s="164" t="s">
+      <c r="I12" s="181"/>
+      <c r="J12" s="185"/>
+      <c r="K12" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="L12" s="23"/>
+      <c r="M12" s="144" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="165"/>
-      <c r="H12" s="160" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12" s="161"/>
-      <c r="J12" s="166"/>
-      <c r="K12" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="L12" s="23"/>
-      <c r="M12" s="119" t="s">
-        <v>21</v>
-      </c>
-      <c r="N12" s="119"/>
-      <c r="O12" s="119"/>
-      <c r="P12" s="119"/>
-      <c r="Q12" s="119"/>
-      <c r="R12" s="119"/>
-      <c r="S12" s="119"/>
-      <c r="T12" s="120"/>
+      <c r="N12" s="144"/>
+      <c r="O12" s="144"/>
+      <c r="P12" s="144"/>
+      <c r="Q12" s="144"/>
+      <c r="R12" s="144"/>
+      <c r="S12" s="144"/>
+      <c r="T12" s="145"/>
       <c r="V12" s="40"/>
       <c r="W12" s="40"/>
-      <c r="X12" s="66"/>
-      <c r="Y12" s="66"/>
-      <c r="Z12" s="66"/>
-      <c r="AA12" s="66"/>
-      <c r="AB12" s="66"/>
-      <c r="AC12" s="66"/>
-      <c r="AD12" s="66"/>
-      <c r="AE12" s="66"/>
+      <c r="X12" s="78"/>
+      <c r="Y12" s="78"/>
+      <c r="Z12" s="78"/>
+      <c r="AA12" s="78"/>
+      <c r="AB12" s="78"/>
+      <c r="AC12" s="78"/>
+      <c r="AD12" s="78"/>
+      <c r="AE12" s="78"/>
       <c r="AF12" s="35"/>
     </row>
     <row r="13" spans="1:32" s="41" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -1935,23 +1872,23 @@
     </row>
     <row r="14" spans="1:32" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="63" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="26"/>
       <c r="D14" s="27"/>
       <c r="E14" s="52" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F14" s="27"/>
-      <c r="G14" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="H14" s="86"/>
+      <c r="G14" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="82"/>
       <c r="I14" s="27"/>
       <c r="J14" s="28"/>
       <c r="K14" s="25" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L14" s="25"/>
       <c r="M14" s="26"/>
@@ -1974,7 +1911,7 @@
       <c r="AE14" s="42"/>
       <c r="AF14" s="35"/>
     </row>
-    <row r="15" spans="1:32" ht="22.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="29"/>
       <c r="B15" s="29"/>
       <c r="C15" s="29"/>
@@ -2012,12 +1949,12 @@
       <c r="B16" s="59"/>
       <c r="C16" s="59"/>
       <c r="D16" s="59"/>
-      <c r="E16" s="173"/>
-      <c r="F16" s="174"/>
+      <c r="E16" s="147"/>
+      <c r="F16" s="105"/>
       <c r="G16" s="59"/>
       <c r="H16" s="59"/>
-      <c r="I16" s="145"/>
-      <c r="J16" s="146"/>
+      <c r="I16" s="82"/>
+      <c r="J16" s="189"/>
       <c r="K16" s="51"/>
       <c r="L16" s="50"/>
       <c r="M16" s="50"/>
@@ -2026,30 +1963,30 @@
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
-      <c r="S16" s="103"/>
-      <c r="T16" s="104"/>
+      <c r="S16" s="104"/>
+      <c r="T16" s="105"/>
       <c r="V16" s="48"/>
       <c r="W16" s="47"/>
       <c r="X16" s="47"/>
-      <c r="AD16" s="86"/>
-      <c r="AE16" s="87"/>
+      <c r="AD16" s="82"/>
+      <c r="AE16" s="83"/>
     </row>
     <row r="17" spans="1:32" s="41" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="76">
+      <c r="A17" s="130">
         <f ca="1">TODAY()</f>
         <v>44464</v>
       </c>
-      <c r="B17" s="77"/>
-      <c r="C17" s="78"/>
+      <c r="B17" s="131"/>
+      <c r="C17" s="132"/>
       <c r="D17" s="59"/>
-      <c r="E17" s="175"/>
-      <c r="F17" s="176"/>
+      <c r="E17" s="148"/>
+      <c r="F17" s="149"/>
       <c r="G17" s="59"/>
       <c r="H17" s="59"/>
       <c r="I17" s="59"/>
       <c r="J17" s="31"/>
       <c r="K17" s="51" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L17" s="50"/>
       <c r="M17" s="50"/>
@@ -2058,29 +1995,29 @@
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
-      <c r="S17" s="103" t="s">
-        <v>1</v>
-      </c>
-      <c r="T17" s="104"/>
+      <c r="S17" s="104" t="s">
+        <v>24</v>
+      </c>
+      <c r="T17" s="105"/>
       <c r="V17" s="48"/>
       <c r="W17" s="47"/>
       <c r="X17" s="47"/>
-      <c r="AD17" s="86"/>
-      <c r="AE17" s="87"/>
+      <c r="AD17" s="82"/>
+      <c r="AE17" s="83"/>
     </row>
     <row r="18" spans="1:32" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="79"/>
-      <c r="B18" s="80"/>
-      <c r="C18" s="81"/>
+      <c r="A18" s="133"/>
+      <c r="B18" s="134"/>
+      <c r="C18" s="135"/>
       <c r="D18" s="59"/>
-      <c r="E18" s="175"/>
-      <c r="F18" s="176"/>
+      <c r="E18" s="148"/>
+      <c r="F18" s="149"/>
       <c r="G18" s="59"/>
-      <c r="H18" s="163" t="s">
-        <v>2</v>
-      </c>
-      <c r="I18" s="163"/>
-      <c r="J18" s="163"/>
+      <c r="H18" s="123" t="s">
+        <v>0</v>
+      </c>
+      <c r="I18" s="123"/>
+      <c r="J18" s="123"/>
       <c r="K18" s="32"/>
       <c r="L18" s="24"/>
       <c r="M18" s="24"/>
@@ -2089,8 +2026,8 @@
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
       <c r="R18" s="7"/>
-      <c r="S18" s="74"/>
-      <c r="T18" s="75"/>
+      <c r="S18" s="91"/>
+      <c r="T18" s="93"/>
       <c r="V18" s="35"/>
       <c r="W18" s="35"/>
       <c r="X18" s="35"/>
@@ -2099,8 +2036,8 @@
       <c r="AA18" s="35"/>
       <c r="AB18" s="35"/>
       <c r="AC18" s="35"/>
-      <c r="AD18" s="86"/>
-      <c r="AE18" s="86"/>
+      <c r="AD18" s="82"/>
+      <c r="AE18" s="82"/>
       <c r="AF18" s="35"/>
     </row>
     <row r="19" spans="1:32" s="10" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -2108,18 +2045,18 @@
       <c r="B19" s="59"/>
       <c r="C19" s="59"/>
       <c r="D19" s="59"/>
-      <c r="E19" s="177"/>
-      <c r="F19" s="178"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="67"/>
       <c r="G19" s="59"/>
-      <c r="H19" s="163"/>
-      <c r="I19" s="163"/>
-      <c r="J19" s="163"/>
-      <c r="K19" s="121">
+      <c r="H19" s="123"/>
+      <c r="I19" s="123"/>
+      <c r="J19" s="123"/>
+      <c r="K19" s="72">
         <f ca="1">K2</f>
         <v>44464</v>
       </c>
-      <c r="L19" s="122"/>
-      <c r="M19" s="123"/>
+      <c r="L19" s="73"/>
+      <c r="M19" s="74"/>
       <c r="N19" s="8"/>
       <c r="O19" s="8"/>
       <c r="P19" s="8"/>
@@ -2127,9 +2064,9 @@
       <c r="R19" s="8"/>
       <c r="S19" s="8"/>
       <c r="T19" s="9"/>
-      <c r="V19" s="101"/>
-      <c r="W19" s="101"/>
-      <c r="X19" s="101"/>
+      <c r="V19" s="111"/>
+      <c r="W19" s="111"/>
+      <c r="X19" s="111"/>
       <c r="Y19" s="36"/>
       <c r="Z19" s="36"/>
       <c r="AA19" s="36"/>
@@ -2140,61 +2077,63 @@
       <c r="AF19" s="36"/>
     </row>
     <row r="20" spans="1:32" s="11" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="100" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="100"/>
-      <c r="C20" s="106" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="106"/>
-      <c r="E20" s="172"/>
-      <c r="F20" s="172"/>
-      <c r="G20" s="106"/>
-      <c r="H20" s="139" t="s">
-        <v>5</v>
-      </c>
-      <c r="I20" s="139"/>
-      <c r="J20" s="140"/>
-      <c r="K20" s="124"/>
-      <c r="L20" s="125"/>
-      <c r="M20" s="126"/>
+      <c r="A20" s="117" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="117"/>
+      <c r="C20" s="126" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="126"/>
+      <c r="E20" s="127"/>
+      <c r="F20" s="127"/>
+      <c r="G20" s="126"/>
+      <c r="H20" s="118">
+        <f>+H5</f>
+        <v>50000</v>
+      </c>
+      <c r="I20" s="118"/>
+      <c r="J20" s="119"/>
+      <c r="K20" s="75"/>
+      <c r="L20" s="76"/>
+      <c r="M20" s="77"/>
       <c r="N20" s="8"/>
       <c r="O20" s="8"/>
       <c r="P20" s="8"/>
       <c r="Q20" s="8"/>
-      <c r="R20" s="82" t="s">
-        <v>2</v>
-      </c>
-      <c r="S20" s="83"/>
-      <c r="T20" s="84"/>
-      <c r="V20" s="101"/>
-      <c r="W20" s="101"/>
-      <c r="X20" s="101"/>
+      <c r="R20" s="98" t="s">
+        <v>0</v>
+      </c>
+      <c r="S20" s="99"/>
+      <c r="T20" s="100"/>
+      <c r="V20" s="111"/>
+      <c r="W20" s="111"/>
+      <c r="X20" s="111"/>
       <c r="Y20" s="36"/>
       <c r="Z20" s="36"/>
       <c r="AA20" s="36"/>
       <c r="AB20" s="36"/>
-      <c r="AC20" s="71"/>
-      <c r="AD20" s="71"/>
-      <c r="AE20" s="71"/>
+      <c r="AC20" s="102"/>
+      <c r="AD20" s="102"/>
+      <c r="AE20" s="102"/>
       <c r="AF20" s="37"/>
     </row>
     <row r="21" spans="1:32" s="11" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="70"/>
-      <c r="B21" s="71"/>
-      <c r="C21" s="71"/>
-      <c r="D21" s="71"/>
-      <c r="E21" s="71"/>
-      <c r="F21" s="72" t="s">
-        <v>7</v>
-      </c>
-      <c r="G21" s="73" t="s">
-        <v>8</v>
-      </c>
-      <c r="H21" s="141"/>
-      <c r="I21" s="139"/>
-      <c r="J21" s="140"/>
+      <c r="A21" s="106" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="106"/>
+      <c r="C21" s="106"/>
+      <c r="D21" s="128">
+        <f>+D6</f>
+        <v>100</v>
+      </c>
+      <c r="E21" s="107"/>
+      <c r="F21" s="107"/>
+      <c r="G21" s="108"/>
+      <c r="H21" s="120"/>
+      <c r="I21" s="118"/>
+      <c r="J21" s="119"/>
       <c r="K21" s="12"/>
       <c r="L21" s="13"/>
       <c r="M21" s="13"/>
@@ -2202,9 +2141,9 @@
       <c r="O21" s="13"/>
       <c r="P21" s="13"/>
       <c r="Q21" s="14"/>
-      <c r="R21" s="70"/>
-      <c r="S21" s="71"/>
-      <c r="T21" s="85"/>
+      <c r="R21" s="101"/>
+      <c r="S21" s="102"/>
+      <c r="T21" s="103"/>
       <c r="V21" s="37"/>
       <c r="W21" s="37"/>
       <c r="X21" s="37"/>
@@ -2212,68 +2151,68 @@
       <c r="Z21" s="37"/>
       <c r="AA21" s="37"/>
       <c r="AB21" s="37"/>
-      <c r="AC21" s="71"/>
-      <c r="AD21" s="71"/>
-      <c r="AE21" s="71"/>
+      <c r="AC21" s="102"/>
+      <c r="AD21" s="102"/>
+      <c r="AE21" s="102"/>
       <c r="AF21" s="37"/>
     </row>
     <row r="22" spans="1:32" s="11" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="70"/>
-      <c r="B22" s="71"/>
-      <c r="C22" s="71"/>
-      <c r="D22" s="71"/>
-      <c r="E22" s="71"/>
-      <c r="F22" s="72"/>
-      <c r="G22" s="73"/>
-      <c r="H22" s="141"/>
-      <c r="I22" s="139"/>
-      <c r="J22" s="140"/>
-      <c r="K22" s="130" t="s">
-        <v>3</v>
-      </c>
-      <c r="L22" s="132"/>
-      <c r="M22" s="93" t="str">
+      <c r="A22" s="106"/>
+      <c r="B22" s="106"/>
+      <c r="C22" s="106"/>
+      <c r="D22" s="129"/>
+      <c r="E22" s="109"/>
+      <c r="F22" s="109"/>
+      <c r="G22" s="110"/>
+      <c r="H22" s="120"/>
+      <c r="I22" s="118"/>
+      <c r="J22" s="119"/>
+      <c r="K22" s="150" t="s">
+        <v>1</v>
+      </c>
+      <c r="L22" s="152"/>
+      <c r="M22" s="89" t="str">
         <f>M5</f>
         <v>Рахматов Дониёр Муродович</v>
       </c>
-      <c r="N22" s="93"/>
-      <c r="O22" s="93"/>
-      <c r="P22" s="93"/>
-      <c r="Q22" s="94"/>
-      <c r="R22" s="133">
+      <c r="N22" s="89"/>
+      <c r="O22" s="89"/>
+      <c r="P22" s="89"/>
+      <c r="Q22" s="90"/>
+      <c r="R22" s="153">
         <f>R5</f>
         <v>1500000</v>
       </c>
-      <c r="S22" s="134"/>
-      <c r="T22" s="135"/>
-      <c r="V22" s="88"/>
-      <c r="W22" s="88"/>
-      <c r="X22" s="92"/>
-      <c r="Y22" s="92"/>
-      <c r="Z22" s="92"/>
-      <c r="AA22" s="92"/>
-      <c r="AB22" s="92"/>
-      <c r="AC22" s="102"/>
-      <c r="AD22" s="102"/>
-      <c r="AE22" s="102"/>
+      <c r="S22" s="154"/>
+      <c r="T22" s="155"/>
+      <c r="V22" s="84"/>
+      <c r="W22" s="84"/>
+      <c r="X22" s="88"/>
+      <c r="Y22" s="88"/>
+      <c r="Z22" s="88"/>
+      <c r="AA22" s="88"/>
+      <c r="AB22" s="88"/>
+      <c r="AC22" s="116"/>
+      <c r="AD22" s="116"/>
+      <c r="AE22" s="116"/>
       <c r="AF22" s="37"/>
     </row>
     <row r="23" spans="1:32" s="11" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="144" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="144"/>
-      <c r="C23" s="67" t="str">
-        <f>C20</f>
-        <v>Рахмонова  Гулсора Абдулхакимовна</v>
-      </c>
-      <c r="D23" s="68"/>
-      <c r="E23" s="68"/>
-      <c r="F23" s="68"/>
-      <c r="G23" s="69"/>
-      <c r="H23" s="142"/>
-      <c r="I23" s="142"/>
-      <c r="J23" s="143"/>
+      <c r="A23" s="146" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="146"/>
+      <c r="C23" s="188" t="str">
+        <f>+C8</f>
+        <v>Абдухоликов Юлчивой ХХХ</v>
+      </c>
+      <c r="D23" s="80"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="81"/>
+      <c r="H23" s="121"/>
+      <c r="I23" s="121"/>
+      <c r="J23" s="122"/>
       <c r="K23" s="15" t="s">
         <v>26</v>
       </c>
@@ -2286,9 +2225,9 @@
       <c r="O23" s="16"/>
       <c r="P23" s="16"/>
       <c r="Q23" s="17"/>
-      <c r="R23" s="133"/>
-      <c r="S23" s="134"/>
-      <c r="T23" s="135"/>
+      <c r="R23" s="153"/>
+      <c r="S23" s="154"/>
+      <c r="T23" s="155"/>
       <c r="V23" s="43"/>
       <c r="W23" s="45"/>
       <c r="X23" s="45"/>
@@ -2296,112 +2235,113 @@
       <c r="Z23" s="45"/>
       <c r="AA23" s="45"/>
       <c r="AB23" s="45"/>
-      <c r="AC23" s="102"/>
-      <c r="AD23" s="102"/>
-      <c r="AE23" s="102"/>
+      <c r="AC23" s="116"/>
+      <c r="AD23" s="116"/>
+      <c r="AE23" s="116"/>
       <c r="AF23" s="37"/>
     </row>
     <row r="24" spans="1:32" s="11" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="167" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="168"/>
-      <c r="C24" s="105">
-        <v>75555</v>
-      </c>
-      <c r="D24" s="105"/>
-      <c r="E24" s="105"/>
-      <c r="F24" s="105"/>
-      <c r="G24" s="105"/>
-      <c r="H24" s="74" t="s">
-        <v>15</v>
-      </c>
-      <c r="I24" s="95"/>
-      <c r="J24" s="75"/>
-      <c r="K24" s="130" t="s">
-        <v>11</v>
-      </c>
-      <c r="L24" s="147"/>
-      <c r="M24" s="148" t="s">
+      <c r="A24" s="186" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="187"/>
+      <c r="C24" s="124">
+        <f>+C9</f>
+        <v>15320</v>
+      </c>
+      <c r="D24" s="124"/>
+      <c r="E24" s="124"/>
+      <c r="F24" s="124"/>
+      <c r="G24" s="124"/>
+      <c r="H24" s="91" t="s">
+        <v>13</v>
+      </c>
+      <c r="I24" s="92"/>
+      <c r="J24" s="93"/>
+      <c r="K24" s="150" t="s">
+        <v>8</v>
+      </c>
+      <c r="L24" s="164"/>
+      <c r="M24" s="165" t="s">
         <v>27</v>
       </c>
-      <c r="N24" s="148"/>
-      <c r="O24" s="149"/>
+      <c r="N24" s="165"/>
+      <c r="O24" s="166"/>
       <c r="P24" s="33" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Q24" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="R24" s="133"/>
-      <c r="S24" s="134"/>
-      <c r="T24" s="135"/>
-      <c r="V24" s="88"/>
-      <c r="W24" s="89"/>
-      <c r="X24" s="90"/>
-      <c r="Y24" s="90"/>
-      <c r="Z24" s="90"/>
+        <v>5</v>
+      </c>
+      <c r="R24" s="153"/>
+      <c r="S24" s="154"/>
+      <c r="T24" s="155"/>
+      <c r="V24" s="84"/>
+      <c r="W24" s="85"/>
+      <c r="X24" s="86"/>
+      <c r="Y24" s="86"/>
+      <c r="Z24" s="86"/>
       <c r="AA24" s="38"/>
       <c r="AB24" s="46"/>
-      <c r="AC24" s="102"/>
-      <c r="AD24" s="102"/>
-      <c r="AE24" s="102"/>
+      <c r="AC24" s="116"/>
+      <c r="AD24" s="116"/>
+      <c r="AE24" s="116"/>
       <c r="AF24" s="37"/>
     </row>
     <row r="25" spans="1:32" s="11" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="127" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25" s="128"/>
-      <c r="C25" s="156" t="e">
-        <f>UPPER(LEFT(Formula!B20,1))&amp;RIGHT(Formula!B20,LEN(Formula!B20)-1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D25" s="157"/>
-      <c r="E25" s="157"/>
-      <c r="F25" s="157"/>
-      <c r="G25" s="157"/>
-      <c r="H25" s="114"/>
-      <c r="I25" s="114"/>
-      <c r="J25" s="115"/>
+      <c r="A25" s="161" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="162"/>
+      <c r="C25" s="176" t="str">
+        <f>+C10</f>
+        <v>Эллик минг сум 0 тийин</v>
+      </c>
+      <c r="D25" s="177"/>
+      <c r="E25" s="177"/>
+      <c r="F25" s="177"/>
+      <c r="G25" s="177"/>
+      <c r="H25" s="139"/>
+      <c r="I25" s="139"/>
+      <c r="J25" s="140"/>
       <c r="K25" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="L25" s="68" t="str">
+        <v>10</v>
+      </c>
+      <c r="L25" s="80" t="str">
         <f>M8</f>
         <v xml:space="preserve">BUVAYDA TUMANI YONG'INNI OLDINI OLISH MCHJ </v>
       </c>
-      <c r="M25" s="68"/>
-      <c r="N25" s="68"/>
-      <c r="O25" s="68"/>
-      <c r="P25" s="68"/>
-      <c r="Q25" s="69"/>
-      <c r="R25" s="136"/>
-      <c r="S25" s="137"/>
-      <c r="T25" s="138"/>
+      <c r="M25" s="80"/>
+      <c r="N25" s="80"/>
+      <c r="O25" s="80"/>
+      <c r="P25" s="80"/>
+      <c r="Q25" s="81"/>
+      <c r="R25" s="156"/>
+      <c r="S25" s="157"/>
+      <c r="T25" s="158"/>
       <c r="V25" s="40"/>
-      <c r="W25" s="92"/>
-      <c r="X25" s="92"/>
-      <c r="Y25" s="92"/>
-      <c r="Z25" s="92"/>
-      <c r="AA25" s="92"/>
-      <c r="AB25" s="92"/>
-      <c r="AC25" s="102"/>
-      <c r="AD25" s="102"/>
-      <c r="AE25" s="102"/>
+      <c r="W25" s="88"/>
+      <c r="X25" s="88"/>
+      <c r="Y25" s="88"/>
+      <c r="Z25" s="88"/>
+      <c r="AA25" s="88"/>
+      <c r="AB25" s="88"/>
+      <c r="AC25" s="116"/>
+      <c r="AD25" s="116"/>
+      <c r="AE25" s="116"/>
       <c r="AF25" s="37"/>
     </row>
     <row r="26" spans="1:32" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="129"/>
-      <c r="B26" s="128"/>
-      <c r="C26" s="158"/>
-      <c r="D26" s="157"/>
-      <c r="E26" s="157"/>
-      <c r="F26" s="157"/>
-      <c r="G26" s="157"/>
-      <c r="H26" s="157"/>
-      <c r="I26" s="157"/>
-      <c r="J26" s="159"/>
+      <c r="A26" s="163"/>
+      <c r="B26" s="162"/>
+      <c r="C26" s="178"/>
+      <c r="D26" s="177"/>
+      <c r="E26" s="177"/>
+      <c r="F26" s="177"/>
+      <c r="G26" s="177"/>
+      <c r="H26" s="177"/>
+      <c r="I26" s="177"/>
+      <c r="J26" s="179"/>
       <c r="K26" s="19"/>
       <c r="L26" s="20"/>
       <c r="M26" s="21"/>
@@ -2409,11 +2349,11 @@
       <c r="O26" s="21"/>
       <c r="P26" s="21"/>
       <c r="Q26" s="21"/>
-      <c r="R26" s="170" t="s">
-        <v>15</v>
-      </c>
-      <c r="S26" s="103"/>
-      <c r="T26" s="171"/>
+      <c r="R26" s="174" t="s">
+        <v>13</v>
+      </c>
+      <c r="S26" s="104"/>
+      <c r="T26" s="175"/>
       <c r="V26" s="37"/>
       <c r="W26" s="37"/>
       <c r="X26" s="39"/>
@@ -2421,55 +2361,56 @@
       <c r="Z26" s="39"/>
       <c r="AA26" s="39"/>
       <c r="AB26" s="39"/>
-      <c r="AC26" s="86"/>
-      <c r="AD26" s="86"/>
-      <c r="AE26" s="86"/>
+      <c r="AC26" s="82"/>
+      <c r="AD26" s="82"/>
+      <c r="AE26" s="82"/>
       <c r="AF26" s="35"/>
     </row>
     <row r="27" spans="1:32" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="130" t="s">
+      <c r="A27" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="151"/>
+      <c r="C27" s="180" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="181"/>
+      <c r="E27" s="182"/>
+      <c r="F27" s="183" t="s">
         <v>17</v>
       </c>
-      <c r="B27" s="131"/>
-      <c r="C27" s="160" t="s">
-        <v>18</v>
-      </c>
-      <c r="D27" s="161"/>
-      <c r="E27" s="162"/>
-      <c r="F27" s="164" t="s">
-        <v>19</v>
-      </c>
-      <c r="G27" s="165"/>
-      <c r="H27" s="160" t="s">
-        <v>20</v>
-      </c>
-      <c r="I27" s="161"/>
-      <c r="J27" s="166"/>
-      <c r="K27" s="96" t="s">
-        <v>16</v>
-      </c>
-      <c r="L27" s="97"/>
-      <c r="M27" s="150" t="str">
+      <c r="G27" s="184"/>
+      <c r="H27" s="180" t="str">
+        <f>+H12</f>
+        <v>Naqd</v>
+      </c>
+      <c r="I27" s="181"/>
+      <c r="J27" s="185"/>
+      <c r="K27" s="94" t="s">
+        <v>14</v>
+      </c>
+      <c r="L27" s="95"/>
+      <c r="M27" s="168" t="str">
         <f>M10</f>
         <v>000</v>
       </c>
-      <c r="N27" s="151"/>
-      <c r="O27" s="151"/>
-      <c r="P27" s="151"/>
-      <c r="Q27" s="151"/>
-      <c r="R27" s="151"/>
-      <c r="S27" s="151"/>
-      <c r="T27" s="152"/>
-      <c r="V27" s="109"/>
-      <c r="W27" s="110"/>
-      <c r="X27" s="169"/>
-      <c r="Y27" s="88"/>
-      <c r="Z27" s="88"/>
-      <c r="AA27" s="88"/>
-      <c r="AB27" s="88"/>
-      <c r="AC27" s="88"/>
-      <c r="AD27" s="88"/>
-      <c r="AE27" s="88"/>
+      <c r="N27" s="169"/>
+      <c r="O27" s="169"/>
+      <c r="P27" s="169"/>
+      <c r="Q27" s="169"/>
+      <c r="R27" s="169"/>
+      <c r="S27" s="169"/>
+      <c r="T27" s="170"/>
+      <c r="V27" s="112"/>
+      <c r="W27" s="113"/>
+      <c r="X27" s="167"/>
+      <c r="Y27" s="84"/>
+      <c r="Z27" s="84"/>
+      <c r="AA27" s="84"/>
+      <c r="AB27" s="84"/>
+      <c r="AC27" s="84"/>
+      <c r="AD27" s="84"/>
+      <c r="AE27" s="84"/>
       <c r="AF27" s="35"/>
     </row>
     <row r="28" spans="1:32" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -2483,79 +2424,79 @@
       <c r="H28" s="60"/>
       <c r="I28" s="60"/>
       <c r="J28" s="64"/>
-      <c r="K28" s="98"/>
-      <c r="L28" s="99"/>
-      <c r="M28" s="153"/>
-      <c r="N28" s="154"/>
-      <c r="O28" s="154"/>
-      <c r="P28" s="154"/>
-      <c r="Q28" s="154"/>
-      <c r="R28" s="154"/>
-      <c r="S28" s="154"/>
-      <c r="T28" s="155"/>
-      <c r="V28" s="110"/>
-      <c r="W28" s="110"/>
-      <c r="X28" s="88"/>
-      <c r="Y28" s="88"/>
-      <c r="Z28" s="88"/>
-      <c r="AA28" s="88"/>
-      <c r="AB28" s="88"/>
-      <c r="AC28" s="88"/>
-      <c r="AD28" s="88"/>
-      <c r="AE28" s="88"/>
+      <c r="K28" s="96"/>
+      <c r="L28" s="97"/>
+      <c r="M28" s="171"/>
+      <c r="N28" s="172"/>
+      <c r="O28" s="172"/>
+      <c r="P28" s="172"/>
+      <c r="Q28" s="172"/>
+      <c r="R28" s="172"/>
+      <c r="S28" s="172"/>
+      <c r="T28" s="173"/>
+      <c r="V28" s="113"/>
+      <c r="W28" s="113"/>
+      <c r="X28" s="84"/>
+      <c r="Y28" s="84"/>
+      <c r="Z28" s="84"/>
+      <c r="AA28" s="84"/>
+      <c r="AB28" s="84"/>
+      <c r="AC28" s="84"/>
+      <c r="AD28" s="84"/>
+      <c r="AE28" s="84"/>
       <c r="AF28" s="35"/>
     </row>
     <row r="29" spans="1:32" s="41" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="63" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B29" s="53"/>
       <c r="C29" s="53"/>
       <c r="D29" s="61"/>
       <c r="E29" s="61" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F29" s="61"/>
-      <c r="G29" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="H29" s="86"/>
+      <c r="G29" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="H29" s="82"/>
       <c r="I29" s="61"/>
       <c r="J29" s="65"/>
       <c r="K29" s="23" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L29" s="23"/>
-      <c r="M29" s="119"/>
-      <c r="N29" s="119"/>
-      <c r="O29" s="119"/>
-      <c r="P29" s="119"/>
-      <c r="Q29" s="119"/>
-      <c r="R29" s="119"/>
-      <c r="S29" s="119"/>
-      <c r="T29" s="120"/>
+      <c r="M29" s="144"/>
+      <c r="N29" s="144"/>
+      <c r="O29" s="144"/>
+      <c r="P29" s="144"/>
+      <c r="Q29" s="144"/>
+      <c r="R29" s="144"/>
+      <c r="S29" s="144"/>
+      <c r="T29" s="145"/>
       <c r="V29" s="40"/>
       <c r="W29" s="40"/>
-      <c r="X29" s="66"/>
-      <c r="Y29" s="66"/>
-      <c r="Z29" s="66"/>
-      <c r="AA29" s="66"/>
-      <c r="AB29" s="66"/>
-      <c r="AC29" s="66"/>
-      <c r="AD29" s="66"/>
-      <c r="AE29" s="66"/>
+      <c r="X29" s="78"/>
+      <c r="Y29" s="78"/>
+      <c r="Z29" s="78"/>
+      <c r="AA29" s="78"/>
+      <c r="AB29" s="78"/>
+      <c r="AC29" s="78"/>
+      <c r="AD29" s="78"/>
+      <c r="AE29" s="78"/>
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A30" s="184"/>
-      <c r="B30" s="184"/>
-      <c r="C30" s="184"/>
-      <c r="D30" s="184"/>
-      <c r="E30" s="184"/>
-      <c r="F30" s="184"/>
-      <c r="G30" s="184"/>
-      <c r="H30" s="184"/>
-      <c r="I30" s="184"/>
-      <c r="J30" s="184"/>
+      <c r="A30" s="71"/>
+      <c r="B30" s="71"/>
+      <c r="C30" s="71"/>
+      <c r="D30" s="71"/>
+      <c r="E30" s="71"/>
+      <c r="F30" s="71"/>
+      <c r="G30" s="71"/>
+      <c r="H30" s="71"/>
+      <c r="I30" s="71"/>
+      <c r="J30" s="71"/>
       <c r="K30" s="57"/>
       <c r="L30" s="57"/>
       <c r="M30" s="57"/>
@@ -2993,8 +2934,10 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="101">
-    <mergeCell ref="C23:G23"/>
+  <mergeCells count="99">
+    <mergeCell ref="R26:T26"/>
+    <mergeCell ref="L25:Q25"/>
+    <mergeCell ref="K27:L28"/>
     <mergeCell ref="H24:J24"/>
     <mergeCell ref="A25:B26"/>
     <mergeCell ref="C25:J26"/>
@@ -3002,8 +2945,8 @@
     <mergeCell ref="C27:E27"/>
     <mergeCell ref="F27:G27"/>
     <mergeCell ref="H27:J27"/>
+    <mergeCell ref="A24:B24"/>
     <mergeCell ref="G29:H29"/>
-    <mergeCell ref="E1:F3"/>
     <mergeCell ref="X29:AE29"/>
     <mergeCell ref="V22:W22"/>
     <mergeCell ref="X22:AB22"/>
@@ -3014,30 +2957,11 @@
     <mergeCell ref="AC26:AE26"/>
     <mergeCell ref="V27:W28"/>
     <mergeCell ref="X27:AE28"/>
+    <mergeCell ref="M27:T28"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="C24:G24"/>
     <mergeCell ref="K24:L24"/>
     <mergeCell ref="M29:T29"/>
-    <mergeCell ref="R26:T26"/>
-    <mergeCell ref="L25:Q25"/>
-    <mergeCell ref="K27:L28"/>
-    <mergeCell ref="E16:F18"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="H18:J19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="R3:T4"/>
-    <mergeCell ref="K2:M3"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="H5:J8"/>
-    <mergeCell ref="H3:J4"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="C10:J11"/>
-    <mergeCell ref="A2:C3"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="A12:B12"/>
     <mergeCell ref="S1:T1"/>
     <mergeCell ref="K22:L22"/>
     <mergeCell ref="M22:Q22"/>
@@ -3051,18 +2975,42 @@
     <mergeCell ref="R5:T8"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="M7:O7"/>
-    <mergeCell ref="M27:T28"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="R3:T4"/>
+    <mergeCell ref="K2:M3"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="A17:C18"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M10:T11"/>
+    <mergeCell ref="M12:T12"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="H5:J8"/>
+    <mergeCell ref="E16:F18"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="H18:J19"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="C10:J11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="H20:J23"/>
+    <mergeCell ref="H3:J4"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="D21:G22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="E1:F3"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="A2:C3"/>
     <mergeCell ref="AD1:AE1"/>
     <mergeCell ref="V2:X3"/>
     <mergeCell ref="AC3:AE4"/>
     <mergeCell ref="V5:W5"/>
     <mergeCell ref="AC5:AE8"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="K8:L8"/>
     <mergeCell ref="AD17:AE17"/>
     <mergeCell ref="AD18:AE18"/>
     <mergeCell ref="V19:X20"/>
@@ -3070,15 +3018,9 @@
     <mergeCell ref="AC9:AE9"/>
     <mergeCell ref="V10:W11"/>
     <mergeCell ref="X10:AE11"/>
-    <mergeCell ref="M10:T11"/>
-    <mergeCell ref="M12:T12"/>
     <mergeCell ref="K19:M20"/>
     <mergeCell ref="X12:AE12"/>
     <mergeCell ref="C8:G8"/>
-    <mergeCell ref="A6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="S18:T18"/>
     <mergeCell ref="AD16:AE16"/>
     <mergeCell ref="V7:W7"/>
     <mergeCell ref="X7:Z7"/>
@@ -3088,16 +3030,13 @@
     <mergeCell ref="R9:T9"/>
     <mergeCell ref="K10:L11"/>
     <mergeCell ref="R20:T21"/>
-    <mergeCell ref="A17:C18"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="H20:J23"/>
-    <mergeCell ref="A21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="A6:C7"/>
+    <mergeCell ref="D6:G7"/>
+    <mergeCell ref="A21:C22"/>
   </mergeCells>
   <printOptions verticalCentered="1"/>
-  <pageMargins left="0.47244094488188981" right="3.937007874015748E-2" top="0.43307086614173229" bottom="0.43307086614173229" header="0.23622047244094491" footer="0.31496062992125984"/>
+  <pageMargins left="0.47244094488188998" right="3.9370078740157001E-2" top="0.43307086614173002" bottom="0.43307086614173002" header="0.23622047244093999" footer="0.31496062992126"/>
   <pageSetup paperSize="9" scale="75" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
@@ -3178,17 +3117,17 @@
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="str">
+      <c r="A4" s="1">
         <f>КВИТАНЦИЯ!H5</f>
-        <v>245 000,00</v>
+        <v>50000</v>
       </c>
       <c r="B4" s="1" t="str">
         <f t="shared" ref="B4:B35" si="0">TRIM(Y4&amp;W4&amp;U4&amp;S4&amp;Q4&amp;O4&amp;M4&amp;K4&amp;I4&amp;G4&amp;" сум "&amp;ROUND((ABS(A4)-INT(ABS(A4)))*100,0)&amp;" тийин")</f>
-        <v>икки юз кирк беш минг сум 0 тийин</v>
+        <v>эллик минг сум 0 тийин</v>
       </c>
       <c r="C4" s="1" t="str">
         <f t="shared" ref="C4:C35" si="1">RIGHT("000000000000000000000000000000"&amp;INT(ABS(A4)),30)</f>
-        <v>000000000000000000000000245000</v>
+        <v>000000000000000000000000050000</v>
       </c>
       <c r="D4">
         <f t="shared" ref="D4:D35" si="2">INT((ABS(A4)-INT(ABS(A4)))*100)</f>
@@ -3208,11 +3147,11 @@
       </c>
       <c r="H4" t="str">
         <f t="shared" ref="H4:H35" si="6">MID(C4,E4-5,3)</f>
-        <v>245</v>
+        <v>050</v>
       </c>
       <c r="I4" t="str">
         <f t="shared" ref="I4:I35" si="7">IF(H4="000",""," "&amp;IF(MID(H4,1,1)="0","",INDEX(C$1:K$1,MID(H4,1,1))&amp;" юз")&amp;" "&amp;IF(MID(H4,2,1)="0","",INDEX(C$2:K$2,MID(H4,2,1)))&amp;" "&amp;IF(MID(H4,3,1)="0","",INDEX(C$1:K$1,MID(H4,3,1)))&amp;" минг")</f>
-        <v xml:space="preserve"> икки юз кирк беш минг</v>
+        <v xml:space="preserve">  эллик  минг</v>
       </c>
       <c r="J4" t="str">
         <f t="shared" ref="J4:J35" si="8">MID(C4,E4-8,3)</f>
@@ -17538,7 +17477,7 @@
     <row r="150" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B150" s="1" t="str">
         <f>UPPER(LEFT(Formula!B4,1))&amp;RIGHT(Formula!B4,LEN(Formula!B4)-1)</f>
-        <v>Икки юз кирк беш минг сум 0 тийин</v>
+        <v>Эллик минг сум 0 тийин</v>
       </c>
     </row>
   </sheetData>
